--- a/Back log.xlsx
+++ b/Back log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.nathan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.nathan\Documents\GitHub\gigabytelabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69188325-0F6F-4BC7-A2F8-C562BEEFD175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39D9018-730E-4576-B40C-9F17F22E025C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FF19F50-0DF7-4F3E-A771-85C08F923949}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <r>
       <t>Video call</t>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Owner</t>
+  </si>
+  <si>
+    <t>TEST ROW</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,7 +940,9 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">

--- a/Back log.xlsx
+++ b/Back log.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.nathan\Documents\GitHub\gigabytelabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39D9018-730E-4576-B40C-9F17F22E025C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CCE0B9-7A47-468B-9A3D-899AA17BA04A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FF19F50-0DF7-4F3E-A771-85C08F923949}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="User Story" sheetId="1" r:id="rId1"/>
+    <sheet name="Additional user stories" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +35,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <r>
-      <t>Video call</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+  <si>
+    <r>
+      <t>Custom backgrounds </t>
     </r>
     <r>
       <rPr>
@@ -50,7 +51,7 @@
   </si>
   <si>
     <r>
-      <t>Custom backgrounds </t>
+      <t>Merge Video/ Image</t>
     </r>
     <r>
       <rPr>
@@ -63,7 +64,7 @@
   </si>
   <si>
     <r>
-      <t>Merge Video/ Image</t>
+      <t>Import Contacts to the App from phonebook</t>
     </r>
     <r>
       <rPr>
@@ -76,7 +77,7 @@
   </si>
   <si>
     <r>
-      <t>Import Contacts to the App from phonebook</t>
+      <t>Invite new users to the App</t>
     </r>
     <r>
       <rPr>
@@ -89,7 +90,7 @@
   </si>
   <si>
     <r>
-      <t>Invite new users to the App</t>
+      <t>Video call with 2 users</t>
     </r>
     <r>
       <rPr>
@@ -102,7 +103,7 @@
   </si>
   <si>
     <r>
-      <t>Video call with 2 users</t>
+      <t>Gallery of all selfies taken using the app (also stored in photos)</t>
     </r>
     <r>
       <rPr>
@@ -114,19 +115,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Gallery of all selfies taken using the app (also stored in photos)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>​</t>
-    </r>
-  </si>
-  <si>
     <t>Identify primary human objects from the foreground</t>
   </si>
   <si>
@@ -253,12 +241,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Backlog</t>
-  </si>
-  <si>
     <t>Epic</t>
   </si>
   <si>
@@ -268,7 +250,76 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>TEST ROW</t>
+    <t>Priority order</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Ability to make video call between 2 individuals (in Android)</t>
+  </si>
+  <si>
+    <t>Implement virtual background for real time video</t>
+  </si>
+  <si>
+    <t>Create an Android app that accesses live video from camera</t>
+  </si>
+  <si>
+    <t>Call the image segmentation functions from Python libraries in the Android application</t>
+  </si>
+  <si>
+    <t>Test image segmentation library</t>
+  </si>
+  <si>
+    <t>Identify the Deep lab library that provides good image segmentation output for human objects</t>
+  </si>
+  <si>
+    <t>Video calling App</t>
+  </si>
+  <si>
+    <t>Implement video calling framework (e.g. WebRTC) for the Android app</t>
+  </si>
+  <si>
+    <t>Develop UI panels to show caller and receiver video</t>
+  </si>
+  <si>
+    <t>Integrate phone contacts and display contacts list in UI</t>
+  </si>
+  <si>
+    <t>Add option to select contact and initiate video call</t>
+  </si>
+  <si>
+    <t>Video Call Merge</t>
+  </si>
+  <si>
+    <t>Develop Python function to obtain caller's image, receiver's image and virtual background as inputs and produce a merged image (foregrounds from the two images on the virtual background)</t>
+  </si>
+  <si>
+    <t>Add feature in Android app that initiates image merge by clicking the merge button to transform the two panel screen into one panel screen</t>
+  </si>
+  <si>
+    <t>Call the merge function in Python and provide the caller's image, receiver's image and a default virtual background as inputs and display the output from the function in the app's UI panel</t>
+  </si>
+  <si>
+    <t>Light tone adjustment</t>
+  </si>
+  <si>
+    <t>Scale image to bring in similar size</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Python library</t>
+  </si>
+  <si>
+    <t>Android App, Python library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display the output (human foreground with virtual background) from the Python library in the Mobile app </t>
+  </si>
+  <si>
+    <t>Develop Python code to process an image, extract the human foreground from the image and display with a virtual background</t>
   </si>
 </sst>
 </file>
@@ -360,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -385,10 +436,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,271 +762,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9938C61-6095-47F0-B315-A01C66EBBC13}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="20" style="13" customWidth="1"/>
+    <col min="3" max="3" width="58.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="6"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4265555D-4A46-47D5-8E95-877ED7F3BC4C}">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Back log.xlsx
+++ b/Back log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.nathan\Documents\GitHub\gigabytelabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CCE0B9-7A47-468B-9A3D-899AA17BA04A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F547611-D5F4-4D2B-914D-BCE1DDECF670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FF19F50-0DF7-4F3E-A771-85C08F923949}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <r>
       <t>Custom backgrounds </t>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>Develop Python code to process an image, extract the human foreground from the image and display with a virtual background</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -762,13 +765,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9938C61-6095-47F0-B315-A01C66EBBC13}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,11 +781,11 @@
     <col min="3" max="3" width="58.109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="7" width="15.21875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -801,8 +804,11 @@
       <c r="F1" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G1" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -817,8 +823,9 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -833,8 +840,9 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -849,8 +857,9 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -865,8 +874,9 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -881,8 +891,9 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -897,8 +908,9 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -913,8 +925,9 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -929,8 +942,9 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -945,8 +959,9 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -961,8 +976,9 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -977,8 +993,9 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -993,222 +1010,250 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="12"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="12"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="12"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="12"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="12"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="12"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="12"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="12"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="12"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="12"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="12"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="12"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="12"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="12"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="12"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="12"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="12"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="12"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="12"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="12"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="12"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="12"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="12"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="12"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="12"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="12"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="12"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Back log.xlsx
+++ b/Back log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.nathan\Documents\GitHub\gigabytelabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F547611-D5F4-4D2B-914D-BCE1DDECF670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910A6D21-2FF3-4E2D-A780-F96C595CE0DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FF19F50-0DF7-4F3E-A771-85C08F923949}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <r>
       <t>Custom backgrounds </t>
@@ -265,9 +265,6 @@
     <t>Create an Android app that accesses live video from camera</t>
   </si>
   <si>
-    <t>Call the image segmentation functions from Python libraries in the Android application</t>
-  </si>
-  <si>
     <t>Test image segmentation library</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>Video calling App</t>
   </si>
   <si>
-    <t>Implement video calling framework (e.g. WebRTC) for the Android app</t>
-  </si>
-  <si>
     <t>Develop UI panels to show caller and receiver video</t>
   </si>
   <si>
@@ -316,13 +310,40 @@
     <t>Android App, Python library</t>
   </si>
   <si>
-    <t xml:space="preserve">Display the output (human foreground with virtual background) from the Python library in the Mobile app </t>
-  </si>
-  <si>
     <t>Develop Python code to process an image, extract the human foreground from the image and display with a virtual background</t>
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Implement image segmentation logic in the Android application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display the output (human foreground with virtual background) in the Mobile app </t>
+  </si>
+  <si>
+    <t>Implement video calling framework (e.g. WebRTC, Agora.io) for the Android app</t>
+  </si>
+  <si>
+    <t>Build framework to sign in and sign out of the app</t>
+  </si>
+  <si>
+    <t>Upgrade Android SDK to use latest camera features</t>
+  </si>
+  <si>
+    <t>Optimize virtual background and image segmentation logic</t>
+  </si>
+  <si>
+    <t>Alankrit</t>
+  </si>
+  <si>
+    <t>Shobhit, Shaashwat</t>
   </si>
 </sst>
 </file>
@@ -765,13 +786,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9938C61-6095-47F0-B315-A01C66EBBC13}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,7 +802,8 @@
     <col min="3" max="3" width="58.109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="15.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -796,7 +818,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>21</v>
@@ -805,7 +827,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -813,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>25</v>
@@ -823,221 +845,263 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="G2" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
@@ -1046,7 +1110,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -1055,7 +1119,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -1064,25 +1128,25 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -1091,25 +1155,25 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
@@ -1118,7 +1182,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1127,7 +1191,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -1136,7 +1200,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
@@ -1145,34 +1209,34 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
@@ -1181,7 +1245,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
@@ -1190,7 +1254,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
@@ -1199,7 +1263,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
@@ -1208,7 +1272,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
@@ -1217,7 +1281,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
@@ -1226,7 +1290,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
@@ -1235,25 +1299,52 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1276,12 +1367,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">

--- a/Back log.xlsx
+++ b/Back log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.nathan\Documents\GitHub\gigabytelabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910A6D21-2FF3-4E2D-A780-F96C595CE0DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16301C6-7A1A-4601-9635-483EE7D104ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FF19F50-0DF7-4F3E-A771-85C08F923949}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <r>
       <t>Custom backgrounds </t>
@@ -292,9 +292,6 @@
     <t>Add feature in Android app that initiates image merge by clicking the merge button to transform the two panel screen into one panel screen</t>
   </si>
   <si>
-    <t>Call the merge function in Python and provide the caller's image, receiver's image and a default virtual background as inputs and display the output from the function in the app's UI panel</t>
-  </si>
-  <si>
     <t>Light tone adjustment</t>
   </si>
   <si>
@@ -344,13 +341,25 @@
   </si>
   <si>
     <t>Shobhit, Shaashwat</t>
+  </si>
+  <si>
+    <t>Develop the merge feature in Native Android (Java)</t>
+  </si>
+  <si>
+    <t>Call the merge function in Java and provide the caller's image, receiver's image and a default virtual background as inputs and display the output from the function in the app's UI panel</t>
+  </si>
+  <si>
+    <t>Capture image frame from caller's and receiver's video stream</t>
+  </si>
+  <si>
+    <t>Focus for week of 4/12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +392,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -435,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -472,6 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,13 +804,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9938C61-6095-47F0-B315-A01C66EBBC13}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,7 +825,7 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -818,7 +836,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>21</v>
@@ -827,10 +845,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -846,10 +864,10 @@
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -860,15 +878,15 @@
         <v>27</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -876,18 +894,18 @@
         <v>26</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -895,18 +913,20 @@
         <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -914,18 +934,18 @@
         <v>26</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -933,7 +953,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>19</v>
@@ -941,10 +961,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -952,18 +972,20 @@
         <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -977,12 +999,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -990,7 +1010,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>19</v>
@@ -999,7 +1019,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1007,16 +1027,18 @@
         <v>28</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1031,9 +1053,11 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1048,9 +1072,11 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1061,15 +1087,17 @@
         <v>33</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1077,16 +1105,23 @@
         <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1094,34 +1129,61 @@
         <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="F16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="12"/>
       <c r="C19" s="5"/>
@@ -1130,7 +1192,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="12"/>
       <c r="C20" s="5"/>
@@ -1139,7 +1201,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="12"/>
       <c r="C21" s="5"/>
@@ -1148,7 +1210,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="12"/>
       <c r="C22" s="5"/>
@@ -1157,16 +1219,16 @@
       <c r="F22" s="6"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
@@ -1175,16 +1237,16 @@
       <c r="F24" s="6"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="12"/>
       <c r="C26" s="5"/>
@@ -1193,7 +1255,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="12"/>
       <c r="C27" s="5"/>
@@ -1202,7 +1264,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="12"/>
       <c r="C28" s="5"/>
@@ -1211,7 +1273,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="12"/>
       <c r="C29" s="5"/>
@@ -1220,7 +1282,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="12"/>
       <c r="C30" s="5"/>
@@ -1229,7 +1291,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="12"/>
       <c r="C31" s="5"/>
@@ -1238,12 +1300,12 @@
       <c r="F31" s="6"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="6"/>
       <c r="G32" s="4"/>
     </row>
@@ -1331,9 +1393,9 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="6"/>
       <c r="G42" s="4"/>
     </row>
@@ -1345,6 +1407,15 @@
       <c r="E43" s="8"/>
       <c r="F43" s="6"/>
       <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1367,12 +1438,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">

--- a/Back log.xlsx
+++ b/Back log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.nathan\Documents\GitHub\gigabytelabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16301C6-7A1A-4601-9635-483EE7D104ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBC29AC-B81F-423E-8EBB-916A3AA1D03B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FF19F50-0DF7-4F3E-A771-85C08F923949}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
     <r>
       <t>Custom backgrounds </t>
@@ -352,7 +352,28 @@
     <t>Capture image frame from caller's and receiver's video stream</t>
   </si>
   <si>
-    <t>Focus for week of 4/12</t>
+    <t>Capture image &amp; video</t>
+  </si>
+  <si>
+    <t>Provide option to capture image during a video call and save to photo library</t>
+  </si>
+  <si>
+    <t>Provide option to capture video during a video call and save to video library</t>
+  </si>
+  <si>
+    <t>Integration with Social media</t>
+  </si>
+  <si>
+    <t>Provide option to integrate with Facebook and post photos and videos on Facebook</t>
+  </si>
+  <si>
+    <t>Merge in Live background</t>
+  </si>
+  <si>
+    <t>Enhance the merge function to use the caller's live background and merge the receiver's foreground (human object) to the merged video</t>
+  </si>
+  <si>
+    <t>Focus for week of 4/26</t>
   </si>
 </sst>
 </file>
@@ -807,10 +828,10 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1118,7 +1139,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1142,7 +1163,7 @@
         <v>43</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1159,8 +1180,12 @@
         <v>19</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1177,47 +1202,94 @@
         <v>39</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+    <row r="20" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+    <row r="22" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="G22" s="4"/>
+      <c r="H22" s="14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>

--- a/Back log.xlsx
+++ b/Back log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.nathan\Documents\GitHub\gigabytelabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBC29AC-B81F-423E-8EBB-916A3AA1D03B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D55B535-C5F8-4CD4-B304-F171AEB4C58D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FF19F50-0DF7-4F3E-A771-85C08F923949}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FF19F50-0DF7-4F3E-A771-85C08F923949}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
     <t>Enhance the merge function to use the caller's live background and merge the receiver's foreground (human object) to the merged video</t>
   </si>
   <si>
-    <t>Focus for week of 4/26</t>
+    <t>Focus for week of 5/1</t>
   </si>
 </sst>
 </file>
@@ -828,10 +828,10 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Back log.xlsx
+++ b/Back log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.nathan\Documents\GitHub\gigabytelabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D55B535-C5F8-4CD4-B304-F171AEB4C58D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60C3B1E-C53C-438E-831D-4F689146E42C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FF19F50-0DF7-4F3E-A771-85C08F923949}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <r>
       <t>Custom backgrounds </t>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>Focus for week of 5/1</t>
+  </si>
+  <si>
+    <t>Focus for week of 5/4</t>
+  </si>
+  <si>
+    <t>Optimize the video and resize the video</t>
   </si>
 </sst>
 </file>
@@ -825,13 +831,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9938C61-6095-47F0-B315-A01C66EBBC13}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,24 +1218,29 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1239,7 +1250,7 @@
         <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>19</v>
@@ -1250,15 +1261,15 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>19</v>
@@ -1269,42 +1280,52 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="14" t="s">
+      <c r="G23" s="4"/>
+      <c r="H23" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
       <c r="G24" s="4"/>
@@ -1321,8 +1342,8 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
@@ -1384,9 +1405,9 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="6"/>
       <c r="G33" s="4"/>
     </row>
@@ -1474,9 +1495,9 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="6"/>
       <c r="G43" s="4"/>
     </row>
@@ -1488,6 +1509,15 @@
       <c r="E44" s="8"/>
       <c r="F44" s="6"/>
       <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Back log.xlsx
+++ b/Back log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.nathan\Documents\GitHub\gigabytelabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60C3B1E-C53C-438E-831D-4F689146E42C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6C5879-7E9A-4795-8324-A658F7F269BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FF19F50-0DF7-4F3E-A771-85C08F923949}"/>
   </bookViews>
@@ -238,9 +238,6 @@
     <t>Record video</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Epic</t>
   </si>
   <si>
@@ -373,13 +370,16 @@
     <t>Enhance the merge function to use the caller's live background and merge the receiver's foreground (human object) to the merged video</t>
   </si>
   <si>
-    <t>Focus for week of 5/1</t>
-  </si>
-  <si>
-    <t>Focus for week of 5/4</t>
-  </si>
-  <si>
     <t>Optimize the video and resize the video</t>
+  </si>
+  <si>
+    <t>Python Model</t>
+  </si>
+  <si>
+    <t>Focus for week of 5/7</t>
+  </si>
+  <si>
+    <t>Enhance the segmentation model to detect human objects</t>
   </si>
 </sst>
 </file>
@@ -831,693 +831,605 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9938C61-6095-47F0-B315-A01C66EBBC13}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20" style="13" customWidth="1"/>
-    <col min="3" max="3" width="58.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20" style="13" customWidth="1"/>
+    <col min="2" max="2" width="58.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4" t="s">
+      <c r="B4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4" t="s">
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="14" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6" t="s">
+      <c r="B24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="14" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="12"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="12"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="12"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="12"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="12"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="12"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="12"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="12"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="12"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="12"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="12"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="12"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="12"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="12"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="12"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="12"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="12"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="12"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="12"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="4"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1540,12 +1452,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -1553,12 +1465,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">

--- a/Back log.xlsx
+++ b/Back log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.nathan\Documents\GitHub\gigabytelabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6C5879-7E9A-4795-8324-A658F7F269BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD8958E-5204-4557-B651-3443965EADAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FF19F50-0DF7-4F3E-A771-85C08F923949}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <r>
       <t>Custom backgrounds </t>
@@ -361,9 +361,6 @@
     <t>Integration with Social media</t>
   </si>
   <si>
-    <t>Provide option to integrate with Facebook and post photos and videos on Facebook</t>
-  </si>
-  <si>
     <t>Merge in Live background</t>
   </si>
   <si>
@@ -376,10 +373,16 @@
     <t>Python Model</t>
   </si>
   <si>
-    <t>Focus for week of 5/7</t>
-  </si>
-  <si>
     <t>Enhance the segmentation model to detect human objects</t>
+  </si>
+  <si>
+    <t>Try out blending algorithm</t>
+  </si>
+  <si>
+    <t>Update app to include the portrait segmentation model</t>
+  </si>
+  <si>
+    <t>Provide option to integrate with Snapchat / Instagram / VSCO and post photos and videos</t>
   </si>
 </sst>
 </file>
@@ -837,7 +840,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,9 +1140,7 @@
       <c r="F17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
@@ -1165,7 +1166,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>37</v>
@@ -1216,7 +1217,7 @@
         <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>18</v>
@@ -1229,10 +1230,10 @@
     </row>
     <row r="23" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>37</v>
@@ -1246,10 +1247,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>37</v>
@@ -1259,24 +1260,32 @@
         <v>50</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="C25" s="10"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
